--- a/Stocks/INFY.xlsx
+++ b/Stocks/INFY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>921.5</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>999.10516675962162</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>981.89744601213738</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>47.427733367610657</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>1.8999999999999773</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>25.549999999999955</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>7.4363992172210597E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>977.27706376050378</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>11.595498943294842</v>
       </c>
       <c r="Y67">
         <v>10.196826258792001</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>943.95</v>
+      </c>
+      <c r="D83">
+        <v>953.95</v>
+      </c>
+      <c r="E83">
+        <v>938</v>
+      </c>
+      <c r="F83">
+        <v>940.3</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>944.08333333333337</v>
+      </c>
+      <c r="H83">
+        <v>923.92277738189841</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>946.39266543827478</v>
+      </c>
+      <c r="K83">
+        <v>914.78075447645165</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>55.483597586123736</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>2.2999999999999545</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>15.950000000000045</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.14420062695924438</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>935.89999730642364</v>
+      </c>
+      <c r="W83">
+        <v>952.46476327220546</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-16.564765965781817</v>
+      </c>
+      <c r="Y83">
+        <v>-9.1189004057736032</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>941.45</v>
+      </c>
+      <c r="D84">
+        <v>942</v>
+      </c>
+      <c r="E84">
+        <v>925.55</v>
+      </c>
+      <c r="F84">
+        <v>926.75</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>931.43333333333339</v>
+      </c>
+      <c r="H84">
+        <v>927.6780553576159</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>945.41651756310262</v>
+      </c>
+      <c r="K84">
+        <v>917.17392014835127</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>49.055205672479481</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>1.2000000000000455</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>16.450000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>7.2948328267479767E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>934.49230541312772</v>
+      </c>
+      <c r="W84">
+        <v>950.55996599278285</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-16.067660579655126</v>
+      </c>
+      <c r="Y84">
+        <v>-10.508652440549907</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>937.2</v>
+      </c>
+      <c r="D85">
+        <v>939</v>
+      </c>
+      <c r="E85">
+        <v>924.1</v>
+      </c>
+      <c r="F85">
+        <v>926.7</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>929.93333333333339</v>
+      </c>
+      <c r="H85">
+        <v>928.80569434547465</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>943.99062477130201</v>
+      </c>
+      <c r="K85">
+        <v>918.71304900427322</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>49.029003848512943</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>14.899999999999977</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.17449664429530382</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>933.29348919572351</v>
+      </c>
+      <c r="W85">
+        <v>948.79256110442861</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-15.499071908705105</v>
+      </c>
+      <c r="Y85">
+        <v>-11.506736334180946</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>928.8</v>
+      </c>
+      <c r="D86">
+        <v>928.95</v>
+      </c>
+      <c r="E86">
+        <v>912.9</v>
+      </c>
+      <c r="F86">
+        <v>915</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>918.94999999999993</v>
+      </c>
+      <c r="H86">
+        <v>923.87784717273735</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>940.64826371101265</v>
+      </c>
+      <c r="K86">
+        <v>917.42126033665693</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N86">
+        <v>42.404092550652031</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>2.1000000000000227</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>16.050000000000068</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.13084112149532795</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>930.47910624253529</v>
+      </c>
+      <c r="W86">
+        <v>946.28940843002647</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-15.810302187491175</v>
+      </c>
+      <c r="Y86">
+        <v>-12.367449504842991</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>915.95</v>
+      </c>
+      <c r="D87">
+        <v>925.9</v>
+      </c>
+      <c r="E87">
+        <v>910</v>
+      </c>
+      <c r="F87">
+        <v>919.85</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>918.58333333333337</v>
+      </c>
+      <c r="H87">
+        <v>921.23059025303542</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>937.3708717752321</v>
+      </c>
+      <c r="K87">
+        <v>915.7720913729554</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>46.172818257029292</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>9.8500000000000227</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>15.899999999999977</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.61949685534591425</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>928.84385912829907</v>
+      </c>
+      <c r="W87">
+        <v>944.33093373150598</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-15.487074603206906</v>
+      </c>
+      <c r="Y87">
+        <v>-12.991374524515773</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>921</v>
+      </c>
+      <c r="D88">
+        <v>921.1</v>
+      </c>
+      <c r="E88">
+        <v>893.5</v>
+      </c>
+      <c r="F88">
+        <v>899.95</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>904.85</v>
+      </c>
+      <c r="H88">
+        <v>913.04029512651778</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>933.75512249184715</v>
+      </c>
+      <c r="K88">
+        <v>910.82273773452084</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N88">
+        <v>34.570797185388585</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>6.4500000000000455</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>27.600000000000023</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.2336956521739145</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>924.39865003163766</v>
+      </c>
+      <c r="W88">
+        <v>941.04345715880186</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-16.644807127164199</v>
+      </c>
+      <c r="Y88">
+        <v>-13.722061045045459</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>902</v>
+      </c>
+      <c r="D89">
+        <v>905</v>
+      </c>
+      <c r="E89">
+        <v>897.25</v>
+      </c>
+      <c r="F89">
+        <v>901</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>901.08333333333337</v>
+      </c>
+      <c r="H89">
+        <v>907.06181422992563</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>927.36509527143664</v>
+      </c>
+      <c r="K89">
+        <v>907.80657379351624</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N89">
+        <v>35.63745884422417</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>3.75</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>7.75</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>920.798857719078</v>
+      </c>
+      <c r="W89">
+        <v>938.07727514703879</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-17.27841742796079</v>
+      </c>
+      <c r="Y89">
+        <v>-14.433332321628525</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>900</v>
+      </c>
+      <c r="D90">
+        <v>900.3</v>
+      </c>
+      <c r="E90">
+        <v>890</v>
+      </c>
+      <c r="F90">
+        <v>896.9</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>895.73333333333323</v>
+      </c>
+      <c r="H90">
+        <v>901.39757378162949</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>921.35062965556187</v>
+      </c>
+      <c r="K90">
+        <v>903.84955739495706</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>33.010732735620472</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>6.8999999999999773</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>10.299999999999955</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.66990291262135993</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>917.12211037768134</v>
+      </c>
+      <c r="W90">
+        <v>935.02710661762853</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-17.904996239947195</v>
+      </c>
+      <c r="Y90">
+        <v>-15.127665105292259</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>900</v>
+      </c>
+      <c r="D91">
+        <v>900.5</v>
+      </c>
+      <c r="E91">
+        <v>892.35</v>
+      </c>
+      <c r="F91">
+        <v>894.65</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>895.83333333333337</v>
+      </c>
+      <c r="H91">
+        <v>898.61545355748149</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>916.71715639877038</v>
+      </c>
+      <c r="K91">
+        <v>901.29410019607769</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N91">
+        <v>31.422000987122701</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>2.2999999999999545</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>8.1499999999999773</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.28220858895705042</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>913.6648626272688</v>
+      </c>
+      <c r="W91">
+        <v>932.03620983113751</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-18.371347203868709</v>
+      </c>
+      <c r="Y91">
+        <v>-15.776401525007548</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>899</v>
+      </c>
+      <c r="D92">
+        <v>899</v>
+      </c>
+      <c r="E92">
+        <v>882.1</v>
+      </c>
+      <c r="F92">
+        <v>884</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>888.36666666666667</v>
+      </c>
+      <c r="H92">
+        <v>893.49106011207414</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>912.78001053237699</v>
+      </c>
+      <c r="K92">
+        <v>897.02874459694931</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>24.457567770221068</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1.8999999999999773</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>16.899999999999977</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.11242603550295739</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>909.10103760768902</v>
+      </c>
+      <c r="W92">
+        <v>928.47797206586802</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-19.376934458178994</v>
+      </c>
+      <c r="Y92">
+        <v>-16.496508111641838</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="35"/>
+        <v>897.05000000000007</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="36"/>
+        <v>892.55000000000007</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="37"/>
+        <v>890.55000000000007</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="38"/>
+        <v>888.55000000000007</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>890.4</v>
+      </c>
+      <c r="D93">
+        <v>891.8</v>
+      </c>
+      <c r="E93">
+        <v>873.65</v>
+      </c>
+      <c r="F93">
+        <v>879.95</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>881.79999999999984</v>
+      </c>
+      <c r="H93">
+        <v>887.64553005603693</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>908.11778596962654</v>
+      </c>
+      <c r="K93">
+        <v>891.83346801984942</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>22.126377671929369</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>6.3000000000000682</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>18.149999999999977</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.3471074380165331</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>904.61626259112154</v>
+      </c>
+      <c r="W93">
+        <v>924.88330746839631</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-20.26704487727477</v>
+      </c>
+      <c r="Y93">
+        <v>-17.250615464768423</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>882.55</v>
+      </c>
+      <c r="D94">
+        <v>887.75</v>
+      </c>
+      <c r="E94">
+        <v>878.8</v>
+      </c>
+      <c r="F94">
+        <v>883.25</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>883.26666666666677</v>
+      </c>
+      <c r="H94">
+        <v>885.45609836135191</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>903.59161130970949</v>
+      </c>
+      <c r="K94">
+        <v>888.93714179321626</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N94">
+        <v>29.017423136326041</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>4.4500000000000455</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>8.9500000000000455</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.49720670391061705</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>901.32914526941056</v>
+      </c>
+      <c r="W94">
+        <v>921.7993587670336</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-20.470213497623035</v>
+      </c>
+      <c r="Y94">
+        <v>-17.894535071339345</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>885.5</v>
+      </c>
+      <c r="D95">
+        <v>887.6</v>
+      </c>
+      <c r="E95">
+        <v>881</v>
+      </c>
+      <c r="F95">
+        <v>884.5</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>884.36666666666667</v>
+      </c>
+      <c r="H95">
+        <v>884.91138251400935</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>900.03791990755178</v>
+      </c>
+      <c r="K95">
+        <v>887.17333250583488</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>31.871903625637525</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>6.6000000000000227</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.5303030303030285</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>898.74004599719353</v>
+      </c>
+      <c r="W95">
+        <v>919.03644330280883</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-20.296397305615301</v>
+      </c>
+      <c r="Y95">
+        <v>-18.374907518194536</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>884.5</v>
+      </c>
+      <c r="D96">
+        <v>896.6</v>
+      </c>
+      <c r="E96">
+        <v>881.6</v>
+      </c>
+      <c r="F96">
+        <v>892.3</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>890.16666666666663</v>
+      </c>
+      <c r="H96">
+        <v>887.53902459033793</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>899.27393770587366</v>
+      </c>
+      <c r="K96">
+        <v>885.93481417120495</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>48.139021877001575</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>10.699999999999932</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.71333333333332882</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>897.74926968993293</v>
+      </c>
+      <c r="W96">
+        <v>917.05596602111927</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-19.306696331186345</v>
+      </c>
+      <c r="Y96">
+        <v>-18.561265280792899</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>892.3</v>
+      </c>
+      <c r="D97">
+        <v>913.25</v>
+      </c>
+      <c r="E97">
+        <v>892.2</v>
+      </c>
+      <c r="F97">
+        <v>908.6</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>904.68333333333339</v>
+      </c>
+      <c r="H97">
+        <v>896.11117896183566</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>902.37972932679065</v>
+      </c>
+      <c r="K97">
+        <v>887.32707768871501</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>68.060328764635685</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>16.399999999999977</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>21.049999999999955</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.77909738717339727</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>899.41861281455863</v>
+      </c>
+      <c r="W97">
+        <v>916.42959816770303</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-17.010985353144406</v>
+      </c>
+      <c r="Y97">
+        <v>-18.251209295263202</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>910</v>
+      </c>
+      <c r="D98">
+        <v>917.75</v>
+      </c>
+      <c r="E98">
+        <v>906.3</v>
+      </c>
+      <c r="F98">
+        <v>908.8</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>910.94999999999993</v>
+      </c>
+      <c r="H98">
+        <v>903.5305894809178</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>905.79534503194827</v>
+      </c>
+      <c r="K98">
+        <v>891.54328264677838</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>68.247400772869398</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2.5</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>11.450000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.21834061135371091</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>900.86190315078034</v>
+      </c>
+      <c r="W98">
+        <v>915.86444274787323</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-15.002539597092891</v>
+      </c>
+      <c r="Y98">
+        <v>-17.601475355629141</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>908</v>
+      </c>
+      <c r="D99">
+        <v>916</v>
+      </c>
+      <c r="E99">
+        <v>903.5</v>
+      </c>
+      <c r="F99">
+        <v>912.7</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>910.73333333333323</v>
+      </c>
+      <c r="H99">
+        <v>907.13196140712557</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>908.06304613595978</v>
+      </c>
+      <c r="K99">
+        <v>894.20033094749431</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>72.214245373415679</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>9.2000000000000455</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>12.5</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.73600000000000365</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>902.68314881989102</v>
+      </c>
+      <c r="W99">
+        <v>915.63003958136414</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-12.946890761473128</v>
+      </c>
+      <c r="Y99">
+        <v>-16.67055843679794</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>917</v>
+      </c>
+      <c r="D100">
+        <v>917</v>
+      </c>
+      <c r="E100">
+        <v>907.45</v>
+      </c>
+      <c r="F100">
+        <v>913.3</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>912.58333333333337</v>
+      </c>
+      <c r="H100">
+        <v>909.85764737022942</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>910.04903588352431</v>
+      </c>
+      <c r="K100">
+        <v>897.14470184805111</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>72.866135222321816</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>5.8499999999999091</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>9.5499999999999545</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.61256544502617138</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>904.31651053990777</v>
+      </c>
+      <c r="W100">
+        <v>915.45744405681864</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-11.140933516910877</v>
+      </c>
+      <c r="Y100">
+        <v>-15.564633452820527</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>915</v>
+      </c>
+      <c r="D101">
+        <v>915.25</v>
+      </c>
+      <c r="E101">
+        <v>908.15</v>
+      </c>
+      <c r="F101">
+        <v>911</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>911.4666666666667</v>
+      </c>
+      <c r="H101">
+        <v>910.66215701844806</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>911.20480568718563</v>
+      </c>
+      <c r="K101">
+        <v>899.59032365959536</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>65.502435523258868</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>2.8500000000000227</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>7.1000000000000227</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.40140845070422726</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>905.34473968761426</v>
+      </c>
+      <c r="W101">
+        <v>915.12726301557279</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-9.7825233279585291</v>
+      </c>
+      <c r="Y101">
+        <v>-14.408211427848126</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>908.15</v>
+      </c>
+      <c r="D102">
+        <v>910.25</v>
+      </c>
+      <c r="E102">
+        <v>888</v>
+      </c>
+      <c r="F102">
+        <v>899</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>899.08333333333337</v>
+      </c>
+      <c r="H102">
+        <v>904.87274517589071</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>910.99262664558887</v>
+      </c>
+      <c r="K102">
+        <v>897.0146961796853</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>39.481337688962562</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>22.25</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.4943820224719101</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>904.36862588951976</v>
+      </c>
+      <c r="W102">
+        <v>913.93265094034518</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-9.5640250508254212</v>
+      </c>
+      <c r="Y102">
+        <v>-13.439374152443586</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>901</v>
+      </c>
+      <c r="D103">
+        <v>901.95</v>
+      </c>
+      <c r="E103">
+        <v>889.1</v>
+      </c>
+      <c r="F103">
+        <v>901</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>897.35</v>
+      </c>
+      <c r="H103">
+        <v>901.11137258794543</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>908.98315405768028</v>
+      </c>
+      <c r="K103">
+        <v>895.25587480642196</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>44.107102558579093</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>11.899999999999977</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>12.850000000000023</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.92607003891050244</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>903.85037575267052</v>
+      </c>
+      <c r="W103">
+        <v>912.97467679661588</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-9.1243010439453656</v>
+      </c>
+      <c r="Y103">
+        <v>-12.576359530743941</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>897</v>
+      </c>
+      <c r="D104">
+        <v>908.4</v>
+      </c>
+      <c r="E104">
+        <v>894.3</v>
+      </c>
+      <c r="F104">
+        <v>901.75</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>901.48333333333323</v>
+      </c>
+      <c r="H104">
+        <v>901.29735296063927</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>908.85356426708461</v>
+      </c>
+      <c r="K104">
+        <v>895.04345818277261</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>46.040423893886363</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>7.4500000000000455</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>14.100000000000023</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.52836879432624351</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>903.52724102149045</v>
+      </c>
+      <c r="W104">
+        <v>912.1432192561258</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-8.6159782346353495</v>
+      </c>
+      <c r="Y104">
+        <v>-11.784283271522224</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>906.1</v>
+      </c>
+      <c r="D105">
+        <v>907.9</v>
+      </c>
+      <c r="E105">
+        <v>895.1</v>
+      </c>
+      <c r="F105">
+        <v>895.9</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>899.63333333333333</v>
+      </c>
+      <c r="H105">
+        <v>900.46534314698624</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>908.64166109662131</v>
+      </c>
+      <c r="K105">
+        <v>895.05602303104536</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>34.429180651297067</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>0.79999999999995453</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>12.799999999999955</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>6.2499999999996669E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>902.35381932587654</v>
+      </c>
+      <c r="W105">
+        <v>910.94001782974613</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-8.5861985038695821</v>
+      </c>
+      <c r="Y105">
+        <v>-11.144666317991696</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>896.1</v>
+      </c>
+      <c r="D106">
+        <v>903.9</v>
+      </c>
+      <c r="E106">
+        <v>894.3</v>
+      </c>
+      <c r="F106">
+        <v>896</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>898.06666666666661</v>
+      </c>
+      <c r="H106">
+        <v>899.26600490682642</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>907.58795863070543</v>
+      </c>
+      <c r="K106">
+        <v>894.88801791303524</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>34.780635966845487</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>1.7000000000000455</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>9.6000000000000227</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.17708333333333764</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>901.37630866035704</v>
+      </c>
+      <c r="W106">
+        <v>909.83334984235751</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-8.4570411820004665</v>
+      </c>
+      <c r="Y106">
+        <v>-10.60714129079345</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>898</v>
+      </c>
+      <c r="D107">
+        <v>902.4</v>
+      </c>
+      <c r="E107">
+        <v>895</v>
+      </c>
+      <c r="F107">
+        <v>899</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>898.80000000000007</v>
+      </c>
+      <c r="H107">
+        <v>899.03300245341325</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>906.43507893499316</v>
+      </c>
+      <c r="K107">
+        <v>894.91290282124965</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>45.695672908801484</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>7.3999999999999773</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.54054054054054224</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>901.01072271260978</v>
+      </c>
+      <c r="W107">
+        <v>909.03087948366431</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-8.0201567710545305</v>
+      </c>
+      <c r="Y107">
+        <v>-10.089744386845666</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
